--- a/biology/Botanique/Tephrosia_vogelii/Tephrosia_vogelii.xlsx
+++ b/biology/Botanique/Tephrosia_vogelii/Tephrosia_vogelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tephrosia vogelii est une espèce de plantes de la  famille des Fabaceae et du genre Tephrosia, elle est endémique d'Afrique tropicale.
 Elle est aussi appelée téphrosie de Vogel ou haricot empoisonneur de poissons. Son utilisation la plus courante est le contrôle biologique des tiques.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tephrosia vogelii  est une herbe ou un petit arbre originaire d'Afrique tropicale au feuillage dense (également utilisé en Amérique tropicale ainsi qu'en Asie du Sud et du Sud-Est).
 Il mesure 0,5–4 m de haut et contient des tiges et des branches à poils courts et longs blancs ou brun rouille.
@@ -545,7 +559,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tephrosia vogelii est couramment utilisé :
 comme pesticide biologique pour dissuader les ravageurs et les maladies, en particulier les puces et les tiques sur les animaux. L'extrait de feuilles de Tephrosia comme acaricide à faible coût a été utilisé avec de bons résultats dans différentes régions (par les pasteurs Samburu et Massai du Kénya, dans la province du Mashonaland Central au Zimbabwe). Des similitudes ont été trouvées entre l'extrait de Tephrosia et la trempette Triatix, qui est l'acaricide conventionnel le plus courant. Les feuilles de la plante Tephrosia sont broyées et un jus est extrait qui est ensuite utilisé sur l'animal. Le liquide vert de la plante est mélangé avec de l'eau et est ensuite appliqué sur la peau de l'animal avec un morceau de tissu ou une éponge. Un peu de savon peut être ajouté au liquide pour le faire adhérer à la peau. Habituellement, il est laissé sur l'animal pendant une semaine, après quoi les résultats apparaissent. Il n'est efficace que contre les tiques à peau douce et immatures. Il s'agit d'une excellente pratique pour les éleveurs qui n'ont pas accès à la médecine vétérinaire.
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tephrosia vogelii provient d'Afrique tropicale. Il a été introduit comme plante de couverture en Amérique tropicale ainsi qu'en Asie du Sud et du Sud-Est. En 1908, il a été introduit à Java et est maintenant cultivé et trouvé dans toutes les régions de Malaisie. En Afrique subsaharienne, Tephrosia vogelii est une plante sauvage.
 </t>
@@ -613,7 +631,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans divers habitats et peut s'adapter à de nombreux climats et types de temps différents. 
 Tephrosia vogelii présente de nombreux avantages :
@@ -651,7 +671,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que cette plante ne soit généralement pas utilisée pour le commerce ou le profit, elle est très économique pour les agriculteurs eux-mêmes. L'abordabilité du Tephrosia le rend très attrayant pour les petits agriculteurs de subsistance qui élèvent du bétail. Les graines de Tephrosia vogelii sont généralement vendues pour environ 0,20 $ le kilo, ce qui est très bon marché par rapport à la plupart des autres semences de cultures proposées sur le marché . Au Kenya en particulier, il est facilement disponible dans les bureaux du Kenya Organic Agricultural Network et KIOF.
 </t>
@@ -682,7 +704,9 @@
           <t>Contraintes à une adoption plus large</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Une limitation de cette culture est liée au fait qu'elle soit utilisée comme poison pour les poissons et est toxique pour diverses espèces, les autorités kenyanes ont interdit sa culture à proximité de grandes étendues d'eau. Cela signifie que les personnes qui vivent dans les zones côtières ne peuvent pas cultiver cette culture près de l'endroit où elles vivent en raison de ses dangers pour la vie des animaux marins.
 </t>
